--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -598,10 +622,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -645,28 +669,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="3">
+      <c r="C18" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -691,28 +715,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="3">
+      <c r="I20" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -800,10 +824,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -847,28 +871,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="C25" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -893,28 +917,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1118,10 +1142,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1165,28 +1189,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="3">
+      <c r="C36" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1211,28 +1235,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1378,10 +1402,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1425,28 +1449,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="3">
+      <c r="C45" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1471,28 +1495,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1638,10 +1662,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="3" t="s">
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1685,28 +1709,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="3">
+      <c r="A54" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="3">
+      <c r="C54" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1731,28 +1755,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="3">
+      <c r="I56" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1898,10 +1922,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="J61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1945,28 +1969,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="A63" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="3">
+      <c r="C63" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1991,28 +2015,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="3">
+      <c r="I65" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2100,10 +2124,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2147,28 +2171,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="3">
+      <c r="C70" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2193,28 +2217,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2302,10 +2326,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="3" t="s">
+      <c r="J75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2349,28 +2373,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="3">
+      <c r="C77" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2395,28 +2419,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2533,10 +2557,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2580,28 +2604,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2626,28 +2650,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2735,10 +2759,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2782,28 +2806,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2828,28 +2852,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2937,10 +2961,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2984,28 +3008,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3030,28 +3054,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3110,10 +3134,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="3" t="s">
+      <c r="J103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3157,28 +3181,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="3">
+      <c r="C105" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3203,28 +3227,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3283,10 +3307,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="3" t="s">
+      <c r="J109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3330,28 +3354,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="3">
+      <c r="A111" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="3">
+      <c r="C111" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3376,28 +3400,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="3">
+      <c r="I113" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3485,10 +3509,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
+      <c r="J116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3532,28 +3556,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="3">
+      <c r="C118" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3578,28 +3602,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3716,10 +3740,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="3" t="s">
+      <c r="J124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3763,28 +3787,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="3">
+      <c r="A126" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="3">
+      <c r="C126" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3809,28 +3833,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="3">
+      <c r="D128" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="3">
+      <c r="I128" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3918,10 +3942,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3" t="s">
+      <c r="J131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3965,28 +3989,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="3">
+      <c r="C133" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4011,28 +4035,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4178,10 +4202,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4225,28 +4249,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4271,28 +4295,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4351,10 +4375,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3" t="s">
+      <c r="J146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4398,28 +4422,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="3">
+      <c r="C148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4444,28 +4468,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4698,10 +4722,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4745,28 +4769,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4791,28 +4815,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4900,10 +4924,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="3" t="s">
+      <c r="J165" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4947,28 +4971,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="3">
+      <c r="A167" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="3">
+      <c r="C167" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4993,28 +5017,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="3">
+      <c r="I169" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5073,10 +5097,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5120,28 +5144,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5166,28 +5190,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5275,10 +5299,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="3" t="s">
+      <c r="J178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5322,28 +5346,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="3">
+      <c r="A180" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="3">
+      <c r="C180" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5368,28 +5392,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="3">
+      <c r="B182" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="3">
+      <c r="C182" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="3">
+      <c r="D182" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="3">
+      <c r="E182" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="F182" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="3">
+      <c r="G182" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="3">
+      <c r="H182" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="3">
+      <c r="I182" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5501,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="3" t="s">
+      <c r="J185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5548,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="3">
+      <c r="A187" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="3">
+      <c r="C187" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5594,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="3">
+      <c r="C189" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="3">
+      <c r="D189" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="3">
+      <c r="I189" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5732,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="3" t="s">
+      <c r="J193" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5779,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="3">
+      <c r="A195" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="3">
+      <c r="C195" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5825,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="3">
+      <c r="C197" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="3">
+      <c r="D197" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="3">
+      <c r="I197" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5881,10 +5905,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="3" t="s">
+      <c r="J199" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5928,28 +5952,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="3">
+      <c r="A201" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="3">
+      <c r="B201" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="3">
+      <c r="C201" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="3">
+      <c r="E201" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="3">
+      <c r="F201" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="3">
+      <c r="G201" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="3">
+      <c r="H201" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5974,28 +5998,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="3">
+      <c r="B203" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="3">
+      <c r="C203" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="3">
+      <c r="D203" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="3">
+      <c r="E203" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="3">
+      <c r="F203" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="3">
+      <c r="G203" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="3">
+      <c r="H203" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="3">
+      <c r="I203" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6112,10 +6136,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6159,28 +6183,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6205,28 +6229,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6285,10 +6309,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="3" t="s">
+      <c r="J213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6332,28 +6356,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="3">
+      <c r="A215" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="3">
+      <c r="B215" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="3">
+      <c r="C215" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="3">
+      <c r="E215" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="3">
+      <c r="F215" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="3">
+      <c r="G215" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="3">
+      <c r="H215" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6378,28 +6402,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="3">
+      <c r="C217" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="3">
+      <c r="D217" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="3">
+      <c r="I217" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6458,10 +6482,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6505,28 +6529,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6551,28 +6575,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6631,10 +6655,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6678,28 +6702,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6724,28 +6748,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6804,10 +6828,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="3" t="s">
+      <c r="J231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6851,28 +6875,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="3">
+      <c r="A233" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="3">
+      <c r="C233" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6897,28 +6921,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="3">
+      <c r="C235" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="3">
+      <c r="D235" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="3">
+      <c r="I235" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7006,10 +7030,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="3" t="s">
+      <c r="J238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7053,28 +7077,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="3">
+      <c r="A240" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="3">
+      <c r="B240" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="3">
+      <c r="C240" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="3">
+      <c r="E240" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="3">
+      <c r="F240" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="3">
+      <c r="G240" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="3">
+      <c r="H240" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7099,28 +7123,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="3">
+      <c r="C242" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="3">
+      <c r="D242" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="3">
+      <c r="I242" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7295,10 +7319,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="3" t="s">
+      <c r="J248" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7342,28 +7366,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="3">
+      <c r="A250" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="3">
+      <c r="B250" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="3">
+      <c r="C250" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="3">
+      <c r="E250" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="3">
+      <c r="F250" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="3">
+      <c r="G250" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="3">
+      <c r="H250" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7388,28 +7412,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="3">
+      <c r="B252" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="3">
+      <c r="C252" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="3">
+      <c r="D252" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="3">
+      <c r="E252" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="3">
+      <c r="F252" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="3">
+      <c r="G252" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="3">
+      <c r="H252" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="3">
+      <c r="I252" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7468,10 +7492,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="3" t="s">
+      <c r="J254" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7515,28 +7539,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="3">
+      <c r="A256" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="3">
+      <c r="C256" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7561,28 +7585,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="3">
+      <c r="C258" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="3">
+      <c r="D258" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="3">
+      <c r="I258" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7670,10 +7694,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7717,28 +7741,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7763,28 +7787,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7843,10 +7867,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="3" t="s">
+      <c r="J267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7890,28 +7914,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="3">
+      <c r="A269" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="3">
+      <c r="B269" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="3">
+      <c r="C269" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="3">
+      <c r="E269" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="3">
+      <c r="F269" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="3">
+      <c r="G269" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="3">
+      <c r="H269" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7936,28 +7960,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="3">
+      <c r="B271" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="3">
+      <c r="C271" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="3">
+      <c r="D271" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="3">
+      <c r="E271" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="3">
+      <c r="F271" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="3">
+      <c r="G271" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="3">
+      <c r="H271" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="3">
+      <c r="I271" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8074,10 +8098,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="3" t="s">
+      <c r="J275" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8121,28 +8145,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="3">
+      <c r="A277" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="3">
+      <c r="B277" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="3">
+      <c r="C277" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="3">
+      <c r="E277" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="3">
+      <c r="F277" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="3">
+      <c r="G277" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="3">
+      <c r="H277" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8167,28 +8191,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="3">
+      <c r="C279" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="3">
+      <c r="D279" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="3">
+      <c r="I279" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8392,10 +8416,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="3" t="s">
+      <c r="J286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8439,28 +8463,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="3">
+      <c r="A288" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="3">
+      <c r="B288" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="3">
+      <c r="C288" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="3">
+      <c r="E288" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="3">
+      <c r="F288" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="3">
+      <c r="G288" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="3">
+      <c r="H288" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8485,28 +8509,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="3">
+      <c r="B290" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="3">
+      <c r="C290" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="3">
+      <c r="D290" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="3">
+      <c r="E290" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="3">
+      <c r="F290" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="3">
+      <c r="G290" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="3">
+      <c r="H290" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="3">
+      <c r="I290" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8652,10 +8676,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="J295" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8699,28 +8723,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="3">
+      <c r="A297" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="3">
+      <c r="C297" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8745,28 +8769,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="3">
+      <c r="C299" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="3">
+      <c r="D299" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="3">
+      <c r="I299" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8825,10 +8849,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="3" t="s">
+      <c r="J301" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
